--- a/biology/Zoologie/Alvania_punctura/Alvania_punctura.xlsx
+++ b/biology/Zoologie/Alvania_punctura/Alvania_punctura.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alvania punctura (Montagu, 1803) est une espèce de mollusques gastéropodes marins de petite taille et de la famille des Rissoidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La coquille peut atteindre 3 mm de hauteur pour une largeur de 2 mm environ. Elle se compose de six tours dont le dernier occupe à peu près les deux tiers de sa hauteur. L'orifice est assez régulièrement ovale, allongé presque parallèlement à l'axe de la coquille. Il y a un ombilic long et étroit. L'ornementation, très caractéristique, consiste en de fines crêtes longitudinales (disposées dans le sens de l'enroulement) qui se croisent avec des côtes transversales (presque parallèles à l'axe de la coquille) et constituent une délicate réticulation à maille carrée, laquelle est cependant absente sur les premiers tours[2],[3]. Ceci permet de la distinguer aisément de Crisilla semistriata dont l'aspect est très voisin.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La coquille peut atteindre 3 mm de hauteur pour une largeur de 2 mm environ. Elle se compose de six tours dont le dernier occupe à peu près les deux tiers de sa hauteur. L'orifice est assez régulièrement ovale, allongé presque parallèlement à l'axe de la coquille. Il y a un ombilic long et étroit. L'ornementation, très caractéristique, consiste en de fines crêtes longitudinales (disposées dans le sens de l'enroulement) qui se croisent avec des côtes transversales (presque parallèles à l'axe de la coquille) et constituent une délicate réticulation à maille carrée, laquelle est cependant absente sur les premiers tours,. Ceci permet de la distinguer aisément de Crisilla semistriata dont l'aspect est très voisin.
 La coquille est de couleur jaunâtre avec des marques brun-rouge.
 </t>
         </is>
@@ -543,9 +557,11 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En principe l'espèce n'habite pas la zone de balancement des marées[2] mais on peut la trouver à très faible profondeur et dans les flaques intertidales[3]. Elle descend jusqu'à 100 mètres.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En principe l'espèce n'habite pas la zone de balancement des marées mais on peut la trouver à très faible profondeur et dans les flaques intertidales. Elle descend jusqu'à 100 mètres.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Alvania punctura est présente en Méditerranée et remonte dans l'Atlantique, jusqu'à la Norvège .
 </t>
